--- a/BackTest/2019-10-27 BackTest BCD.xlsx
+++ b/BackTest/2019-10-27 BackTest BCD.xlsx
@@ -836,17 +836,13 @@
         <v>563.6666666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>565</v>
-      </c>
-      <c r="K13" t="n">
-        <v>565</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -881,16 +877,12 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K14" t="n">
         <v>565</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -924,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="K15" t="n">
         <v>565</v>
@@ -961,14 +953,12 @@
         <v>568.3333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>569</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>565</v>
       </c>
@@ -1004,14 +994,12 @@
         <v>566.6666666666666</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>565</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>565</v>
       </c>
@@ -1047,14 +1035,12 @@
         <v>568.6666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>569</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>565</v>
       </c>
@@ -1090,14 +1076,12 @@
         <v>567.3333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>568</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>565</v>
       </c>
@@ -1133,14 +1117,12 @@
         <v>569</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>570</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>565</v>
       </c>
@@ -1176,14 +1158,12 @@
         <v>570</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>572</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>565</v>
       </c>
@@ -1219,14 +1199,12 @@
         <v>574.3333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>574</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>565</v>
       </c>
@@ -6223,12 +6201,14 @@
         <v>571</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>571</v>
+      </c>
       <c r="K144" t="n">
         <v>565</v>
       </c>
@@ -6264,12 +6244,14 @@
         <v>571.3333333333334</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>571</v>
+      </c>
       <c r="K145" t="n">
         <v>565</v>
       </c>
@@ -6305,12 +6287,14 @@
         <v>571</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>572</v>
+      </c>
       <c r="K146" t="n">
         <v>565</v>
       </c>
@@ -6346,12 +6330,14 @@
         <v>570.6666666666666</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>570</v>
+      </c>
       <c r="K147" t="n">
         <v>565</v>
       </c>
@@ -6428,12 +6414,14 @@
         <v>569.3333333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>570</v>
+      </c>
       <c r="K149" t="n">
         <v>565</v>
       </c>
@@ -6715,12 +6703,14 @@
         <v>565.3333333333334</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>566</v>
+      </c>
       <c r="K156" t="n">
         <v>565</v>
       </c>
@@ -6756,12 +6746,14 @@
         <v>566.3333333333334</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>567</v>
+      </c>
       <c r="K157" t="n">
         <v>565</v>
       </c>
@@ -6838,12 +6830,14 @@
         <v>565.3333333333334</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>565</v>
+      </c>
       <c r="K159" t="n">
         <v>565</v>
       </c>
@@ -6928,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K161" t="n">
         <v>565</v>
@@ -7014,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="K163" t="n">
         <v>565</v>
@@ -7094,14 +7088,12 @@
         <v>568.6666666666666</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>565</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
         <v>565</v>
       </c>
@@ -7137,14 +7129,12 @@
         <v>566.6666666666666</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>565</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
         <v>565</v>
       </c>
@@ -7180,14 +7170,12 @@
         <v>564.6666666666666</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>566</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
         <v>565</v>
       </c>
@@ -7223,14 +7211,12 @@
         <v>564.6666666666666</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>564</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
         <v>565</v>
       </c>
@@ -7266,14 +7252,12 @@
         <v>564.3333333333334</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>564</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
         <v>565</v>
       </c>
@@ -7309,14 +7293,12 @@
         <v>565</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>567</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
         <v>565</v>
       </c>
@@ -7352,14 +7334,12 @@
         <v>565.6666666666666</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>566</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
         <v>565</v>
       </c>
@@ -7395,14 +7375,12 @@
         <v>566.3333333333334</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>566</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
         <v>565</v>
       </c>
@@ -7438,14 +7416,12 @@
         <v>566.3333333333334</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>567</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
         <v>565</v>
       </c>
@@ -7481,14 +7457,12 @@
         <v>567.3333333333334</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>571</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
         <v>565</v>
       </c>
@@ -7524,14 +7498,12 @@
         <v>569</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>571</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
         <v>565</v>
       </c>
@@ -7567,14 +7539,12 @@
         <v>570</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>570</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
         <v>565</v>
       </c>
@@ -7610,14 +7580,12 @@
         <v>570.3333333333334</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>570</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
         <v>565</v>
       </c>
@@ -7653,14 +7621,12 @@
         <v>570.3333333333334</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>571</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
         <v>565</v>
       </c>
@@ -7696,14 +7662,12 @@
         <v>570</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>569</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
         <v>565</v>
       </c>
@@ -7780,14 +7744,12 @@
         <v>566</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>569</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>565</v>
       </c>
@@ -7823,14 +7785,12 @@
         <v>563.3333333333334</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>563</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>565</v>
       </c>
@@ -7907,14 +7867,12 @@
         <v>564.3333333333334</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>566</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
         <v>565</v>
       </c>
@@ -7950,14 +7908,12 @@
         <v>565.3333333333334</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>564</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
         <v>565</v>
       </c>
@@ -7993,14 +7949,12 @@
         <v>564.6666666666666</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>564</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
         <v>565</v>
       </c>
@@ -8036,14 +7990,12 @@
         <v>563.6666666666666</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>563</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
         <v>565</v>
       </c>
@@ -8079,14 +8031,12 @@
         <v>563.3333333333334</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>563</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>565</v>
       </c>
@@ -8122,14 +8072,12 @@
         <v>564</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>566</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>565</v>
       </c>
@@ -8165,14 +8113,12 @@
         <v>565</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>566</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
         <v>565</v>
       </c>
@@ -8208,14 +8154,12 @@
         <v>567.3333333333334</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>566</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
         <v>565</v>
       </c>
@@ -8251,14 +8195,12 @@
         <v>570.6666666666666</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>570</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
         <v>565</v>
       </c>
@@ -8294,14 +8236,12 @@
         <v>573</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>573</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
         <v>565</v>
       </c>
@@ -8337,14 +8277,12 @@
         <v>574</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>573</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
         <v>565</v>
       </c>
@@ -8380,14 +8318,12 @@
         <v>573</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>573</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
         <v>565</v>
       </c>
@@ -8751,14 +8687,12 @@
         <v>563.6666666666666</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>563</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
         <v>565</v>
       </c>
@@ -8794,14 +8728,12 @@
         <v>562.3333333333334</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>563</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
         <v>565</v>
       </c>
@@ -8837,14 +8769,12 @@
         <v>562.3333333333334</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>563</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
         <v>565</v>
       </c>
@@ -8880,14 +8810,12 @@
         <v>562.3333333333334</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>563</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
         <v>565</v>
       </c>
@@ -8923,14 +8851,12 @@
         <v>562.6666666666666</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>562</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
         <v>565</v>
       </c>
@@ -8966,14 +8892,12 @@
         <v>563.6666666666666</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>566</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
         <v>565</v>
       </c>
@@ -9009,14 +8933,12 @@
         <v>564.6666666666666</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>566</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
         <v>565</v>
       </c>
@@ -9052,14 +8974,12 @@
         <v>566</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>566</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
         <v>565</v>
       </c>
@@ -9095,14 +9015,12 @@
         <v>564.6666666666666</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>566</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
         <v>565</v>
       </c>
@@ -9138,14 +9056,12 @@
         <v>563.3333333333334</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>562</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>565</v>
       </c>
@@ -9181,14 +9097,12 @@
         <v>563.3333333333334</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>566</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
         <v>565</v>
       </c>
@@ -9224,14 +9138,12 @@
         <v>564.3333333333334</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>565</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
         <v>565</v>
       </c>
@@ -9267,14 +9179,12 @@
         <v>565.6666666666666</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>566</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
         <v>565</v>
       </c>
@@ -9310,14 +9220,12 @@
         <v>565.6666666666666</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>566</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
         <v>565</v>
       </c>
@@ -9353,14 +9261,12 @@
         <v>564.3333333333334</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>563</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
         <v>565</v>
       </c>
@@ -9396,14 +9302,12 @@
         <v>564</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>565</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
         <v>565</v>
       </c>
@@ -9439,14 +9343,12 @@
         <v>564</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>566</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
         <v>565</v>
       </c>
@@ -9482,14 +9384,12 @@
         <v>567</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>570</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
         <v>565</v>
       </c>
@@ -9525,14 +9425,12 @@
         <v>568.6666666666666</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>570</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
         <v>565</v>
       </c>
@@ -9568,14 +9466,12 @@
         <v>571.6666666666666</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>569</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
         <v>565</v>
       </c>
@@ -9611,14 +9507,12 @@
         <v>572.3333333333334</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>572</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
         <v>565</v>
       </c>
@@ -9654,14 +9548,12 @@
         <v>573</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>572</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
         <v>565</v>
       </c>
@@ -9697,14 +9589,12 @@
         <v>572</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>572</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
         <v>565</v>
       </c>
@@ -12695,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
@@ -12703,11 +12593,11 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>1.058716814159292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -12736,11 +12626,17 @@
         <v>0</v>
       </c>
       <c r="I300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>565</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12774,8 +12670,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>565</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12806,13 +12708,19 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>565</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M302" t="n">
-        <v>1</v>
+        <v>1.069336283185841</v>
       </c>
     </row>
     <row r="303">

--- a/BackTest/2019-10-27 BackTest BCD.xlsx
+++ b/BackTest/2019-10-27 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16541.1003976</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-16254.7763976</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-18418.0965976</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-18276.5340976</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-17950.4749976</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-17858.7844976</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-17858.7844976</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-16646.7776976</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-16646.7776976</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-15380.7649976</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-16552.4282976</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-17706.3097976</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-17821.8888976</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-17545.8888976</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-17610.8888976</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-17610.8888976</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-17202.5558976</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-17202.5558976</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-16802.5558976</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-16752.0086976</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-16812.0085976</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-17066.6292976</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-17065.6292976</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-17585.6292976</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-17560.6292976</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-17493.5734976</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-12437.4485976</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-17492.5734976</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17492.5734976</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-16404.9384976</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-16454.9384976</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-16343.7999976</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-15896.90289760001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-16024.90279760001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-45724.21471830002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-70635.76091830002</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-53120.82346003004</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-51248.91046003004</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-51248.91046003004</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-57532.12346003004</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-54502.12346003004</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-54502.12346003004</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-54502.12346003004</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-54502.12346003004</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-54502.12346003004</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-62527.75506003004</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7678,10 +7678,14 @@
         <v>-71632.14256003004</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>563</v>
+      </c>
+      <c r="J221" t="n">
+        <v>563</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
@@ -7714,8 +7718,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>563</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +7757,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>563</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8057,17 @@
         <v>-64507.66586003006</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>566</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8100,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8137,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,15 +8170,15 @@
         <v>-63528.78526003006</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>571</v>
-      </c>
-      <c r="J235" t="n">
-        <v>571</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8180,12 +8210,10 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>571</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L236" t="n">
@@ -8219,12 +8247,10 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>571</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
@@ -8259,7 +8285,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8292,7 +8322,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8325,7 +8359,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8358,7 +8396,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8391,7 +8433,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8424,7 +8470,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8457,7 +8507,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8490,7 +8544,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8519,11 +8577,17 @@
         <v>-71341.32846003007</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>564</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8552,11 +8616,17 @@
         <v>-71341.32846003007</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>563</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8585,15 +8655,17 @@
         <v>-71337.32846003007</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>563</v>
       </c>
-      <c r="J248" t="n">
-        <v>563</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8622,17 +8694,15 @@
         <v>-71337.32846003007</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>566</v>
       </c>
-      <c r="J249" t="n">
-        <v>563</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -8663,17 +8733,15 @@
         <v>-71326.32846003007</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>566</v>
       </c>
-      <c r="J250" t="n">
-        <v>563</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8704,17 +8772,15 @@
         <v>-70668.12366003006</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>570</v>
       </c>
-      <c r="J251" t="n">
-        <v>563</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -8745,12 +8811,12 @@
         <v>-70672.55296003007</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>576</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8787,9 +8853,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>563</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8826,9 +8890,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>563</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8865,9 +8927,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>563</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8904,9 +8964,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>563</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8940,12 +8998,10 @@
         <v>-72168.56746003006</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>563</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8982,9 +9038,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>563</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9021,9 +9075,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>563</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9060,9 +9112,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>563</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9099,9 +9149,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>563</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9138,9 +9186,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>563</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9177,9 +9223,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>563</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9213,12 +9257,12 @@
         <v>-88051.20066003005</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
         <v>563</v>
       </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9255,9 +9299,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>563</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9291,12 +9333,12 @@
         <v>-87321.96046003005</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
         <v>563</v>
       </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9330,12 +9372,12 @@
         <v>-88027.96046003005</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
         <v>563</v>
       </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9369,12 +9411,12 @@
         <v>-88016.43706003005</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>562</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9408,12 +9450,12 @@
         <v>-88016.43706003005</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>566</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9447,12 +9489,12 @@
         <v>-88016.43706003005</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>566</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9486,14 +9528,12 @@
         <v>-98207.98586003005</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>566</v>
       </c>
-      <c r="J271" t="n">
-        <v>563</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9527,12 +9567,12 @@
         <v>-98207.98586003005</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>562</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9566,12 +9606,12 @@
         <v>-98196.67346003006</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>562</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9608,9 +9648,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>563</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9644,14 +9682,12 @@
         <v>-98412.05636003005</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>565</v>
       </c>
-      <c r="J275" t="n">
-        <v>563</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9685,14 +9721,12 @@
         <v>-98412.05636003005</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>566</v>
       </c>
-      <c r="J276" t="n">
-        <v>563</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9726,14 +9760,12 @@
         <v>-101696.7190600301</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>566</v>
       </c>
-      <c r="J277" t="n">
-        <v>563</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9767,14 +9799,12 @@
         <v>-101345.0864600301</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>561</v>
       </c>
-      <c r="J278" t="n">
-        <v>563</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9808,14 +9838,12 @@
         <v>-96997.33806003006</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>565</v>
       </c>
-      <c r="J279" t="n">
-        <v>563</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9849,14 +9877,12 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>566</v>
       </c>
-      <c r="J280" t="n">
-        <v>563</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9890,12 +9916,12 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>570</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9929,14 +9955,12 @@
         <v>-93483.35798890007</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>570</v>
       </c>
-      <c r="J282" t="n">
-        <v>563</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9970,12 +9994,12 @@
         <v>-93800.35798890007</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>575</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10012,9 +10036,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>563</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10051,9 +10073,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>563</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10090,9 +10110,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>563</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10129,9 +10147,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>563</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10168,9 +10184,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>563</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10207,9 +10221,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>563</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10246,9 +10258,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>563</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10285,9 +10295,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>563</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10324,9 +10332,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>563</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10363,9 +10369,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>563</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10402,9 +10406,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>563</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10441,9 +10443,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>563</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10480,9 +10480,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>563</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10519,9 +10517,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>563</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10558,9 +10554,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>563</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10597,9 +10591,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>563</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10633,12 +10625,10 @@
         <v>-85578.42077905008</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>563</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10675,9 +10665,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>563</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10714,9 +10702,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>563</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10753,9 +10739,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>563</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10792,9 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>563</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10831,9 +10813,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>563</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10870,9 +10850,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>563</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10909,9 +10887,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>563</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10948,9 +10924,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>563</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10987,9 +10961,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>563</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,9 +10998,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>563</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11065,9 +11035,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>563</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11104,9 +11072,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>563</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11143,9 +11109,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>563</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11182,9 +11146,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>563</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11221,9 +11183,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>563</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11260,9 +11220,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>563</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11299,9 +11257,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>563</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11338,9 +11294,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>563</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11377,9 +11331,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>563</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11416,9 +11368,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>563</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11455,9 +11405,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>563</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11494,9 +11442,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>563</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11533,9 +11479,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>563</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11572,9 +11516,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>563</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11611,9 +11553,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>563</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11650,9 +11590,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>563</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11689,9 +11627,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>563</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11728,9 +11664,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>563</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11764,12 +11698,10 @@
         <v>-83786.48437905007</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>563</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11803,12 +11735,10 @@
         <v>-85918.03777905008</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>563</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11845,9 +11775,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>563</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11881,12 +11809,10 @@
         <v>-88861.54847905008</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>563</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11920,12 +11846,10 @@
         <v>-85362.75417905008</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>563</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11959,12 +11883,10 @@
         <v>-84622.75417905008</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>563</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11998,12 +11920,10 @@
         <v>-84622.75417905008</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>563</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12037,12 +11957,10 @@
         <v>-84622.75417905008</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>563</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12076,12 +11994,10 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>563</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12115,12 +12031,10 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>563</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12154,12 +12068,10 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>563</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12193,12 +12105,10 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>563</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12232,12 +12142,10 @@
         <v>-82946.93577905008</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>563</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12271,12 +12179,10 @@
         <v>-82461.56636003008</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>563</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12310,12 +12216,10 @@
         <v>-81555.50765344007</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>563</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12352,9 +12256,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>563</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12388,12 +12290,10 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>563</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12430,9 +12330,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>563</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12466,12 +12364,10 @@
         <v>-80913.33576003007</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>563</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12508,9 +12404,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>563</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12544,12 +12438,10 @@
         <v>-81341.65666003007</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>563</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12586,9 +12478,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>563</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12625,9 +12515,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>563</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12664,9 +12552,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>563</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12703,9 +12589,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>563</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12742,9 +12626,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>563</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12781,9 +12663,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>563</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12820,9 +12700,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>563</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12859,9 +12737,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>563</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12898,9 +12774,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>563</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12937,9 +12811,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>563</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12976,9 +12848,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>563</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13012,23 +12882,19 @@
         <v>-59700.95924145007</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>563</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L361" t="n">
-        <v>1.073152753108348</v>
-      </c>
-      <c r="M361" t="n">
-        <v>1.051693404634581</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13053,11 +12919,15 @@
         <v>-65399.26094145006</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13090,7 +12960,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13123,7 +12997,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13156,7 +13034,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13185,14 +13067,16 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -13218,7 +13102,7 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13482,7 +13366,7 @@
         <v>-73532.81285237009</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13548,7 +13432,7 @@
         <v>-73532.81285237009</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13559,6 +13443,6 @@
       <c r="M377" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest BCD.xlsx
+++ b/BackTest/2019-10-27 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16541.1003976</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-16254.7763976</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-18418.0965976</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-18276.5340976</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-17950.4749976</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-17858.7844976</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-17858.7844976</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-16646.7776976</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-16646.7776976</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-15380.7649976</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-16552.4282976</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-17706.3097976</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-17821.8888976</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-17545.8888976</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-17610.8888976</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-17610.8888976</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-17202.5558976</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-17202.5558976</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-16802.5558976</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-16752.0086976</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-16812.0085976</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-17066.6292976</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-17065.6292976</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-17585.6292976</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-17560.6292976</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-17493.5734976</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-12437.4485976</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-17492.5734976</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17492.5734976</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-16404.9384976</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-16454.9384976</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-16343.7999976</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-15896.90289760001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-16024.90279760001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -7348,10 +7348,14 @@
         <v>-63373.90026003004</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>564</v>
+      </c>
+      <c r="J211" t="n">
+        <v>564</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7381,11 +7385,19 @@
         <v>-62198.90026003004</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>565</v>
+      </c>
+      <c r="J212" t="n">
+        <v>564</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7429,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>564</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7468,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>564</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7507,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>564</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7546,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>564</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +7585,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>564</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +7624,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>564</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +7663,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>564</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +7702,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>564</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7684,9 +7744,13 @@
         <v>563</v>
       </c>
       <c r="J221" t="n">
-        <v>563</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+        <v>564</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,15 +7779,17 @@
         <v>-65454.00546003004</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>563</v>
+      </c>
       <c r="J222" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L222" t="n">
@@ -7758,11 +7824,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L223" t="n">
@@ -7796,8 +7862,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>564</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7829,8 +7901,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>564</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7862,8 +7940,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>564</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7895,8 +7979,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>564</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7928,8 +8018,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>564</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7961,8 +8057,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>564</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7994,8 +8096,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>564</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8027,8 +8135,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>564</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8057,15 +8171,15 @@
         <v>-64507.66586003006</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>566</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>564</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8099,7 +8213,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>564</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8136,7 +8252,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>564</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8173,7 +8291,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>564</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8210,7 +8330,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>564</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8247,7 +8369,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>564</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8284,7 +8408,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>564</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8321,7 +8447,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>564</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8358,7 +8486,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>564</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8395,7 +8525,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>564</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8432,7 +8564,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>564</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8469,7 +8603,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>564</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8506,7 +8642,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>564</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8540,10 +8678,14 @@
         <v>-70338.70796003006</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>564</v>
+      </c>
+      <c r="J245" t="n">
+        <v>564</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8577,12 +8719,12 @@
         <v>-71341.32846003007</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>564</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>564</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8616,12 +8758,12 @@
         <v>-71341.32846003007</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>563</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>564</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8655,12 +8797,12 @@
         <v>-71337.32846003007</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>563</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>564</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,7 +8841,9 @@
       <c r="I249" t="n">
         <v>566</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>564</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8733,12 +8877,12 @@
         <v>-71326.32846003007</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>566</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>564</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,12 +8916,12 @@
         <v>-70668.12366003006</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>570</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>564</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8811,12 +8955,12 @@
         <v>-70672.55296003007</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>576</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>564</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8853,7 +8997,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>564</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8890,7 +9036,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>564</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8927,7 +9075,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>564</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8964,7 +9114,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>564</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9001,7 +9153,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>564</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9038,7 +9192,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>564</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9075,7 +9231,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>564</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9112,7 +9270,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>564</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9149,7 +9309,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>564</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9186,7 +9348,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>564</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9223,7 +9387,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>564</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9257,12 +9423,12 @@
         <v>-88051.20066003005</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>563</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>564</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9299,7 +9465,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>564</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9333,12 +9501,12 @@
         <v>-87321.96046003005</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>563</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>564</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,12 +9540,12 @@
         <v>-88027.96046003005</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>563</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>564</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9416,7 +9584,9 @@
       <c r="I268" t="n">
         <v>562</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>564</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9455,7 +9625,9 @@
       <c r="I269" t="n">
         <v>566</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>564</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9489,12 +9661,12 @@
         <v>-88016.43706003005</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>566</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>564</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9533,7 +9705,9 @@
       <c r="I271" t="n">
         <v>566</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>564</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9567,12 +9741,12 @@
         <v>-98207.98586003005</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>562</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>564</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9611,7 +9785,9 @@
       <c r="I273" t="n">
         <v>562</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>564</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9645,10 +9821,14 @@
         <v>-98469.20936003006</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>566</v>
+      </c>
+      <c r="J274" t="n">
+        <v>564</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9687,7 +9867,9 @@
       <c r="I275" t="n">
         <v>565</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>564</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9726,7 +9908,9 @@
       <c r="I276" t="n">
         <v>566</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>564</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9765,7 +9949,9 @@
       <c r="I277" t="n">
         <v>566</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>564</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9804,7 +9990,9 @@
       <c r="I278" t="n">
         <v>561</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>564</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9843,7 +10031,9 @@
       <c r="I279" t="n">
         <v>565</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>564</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9877,12 +10067,12 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>566</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>564</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9916,12 +10106,12 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>570</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>564</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9955,12 +10145,12 @@
         <v>-93483.35798890007</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>570</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>564</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9994,12 +10184,12 @@
         <v>-93800.35798890007</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>575</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>564</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10036,7 +10226,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>564</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10073,7 +10265,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>564</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10110,7 +10304,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>564</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10147,7 +10343,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>564</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10184,7 +10382,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>564</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10221,7 +10421,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>564</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10258,7 +10460,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>564</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10295,7 +10499,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>564</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10332,7 +10538,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>564</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10369,7 +10577,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>564</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10406,7 +10616,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>564</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10443,7 +10655,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>564</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10480,7 +10694,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>564</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10517,7 +10733,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>564</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10554,7 +10772,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>564</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10591,7 +10811,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>564</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10628,7 +10850,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>564</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10665,7 +10889,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>564</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10702,7 +10928,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>564</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10739,7 +10967,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>564</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10776,7 +11006,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>564</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10813,7 +11045,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>564</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10850,7 +11084,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>564</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10887,7 +11123,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>564</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,7 +11162,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>564</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10961,7 +11201,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>564</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10998,7 +11240,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>564</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11035,7 +11279,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>564</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11072,7 +11318,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>564</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11109,7 +11357,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>564</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11146,7 +11396,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>564</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11183,7 +11435,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>564</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11220,7 +11474,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>564</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11254,17 +11510,19 @@
         <v>-81059.11837905008</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>564</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L317" t="n">
-        <v>1</v>
+        <v>1.037553191489362</v>
       </c>
       <c r="M317" t="inlineStr"/>
     </row>
@@ -11291,15 +11549,11 @@
         <v>-81059.11837905008</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11328,15 +11582,11 @@
         <v>-82347.17007905008</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11365,15 +11615,11 @@
         <v>-81383.52047905007</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11402,15 +11648,11 @@
         <v>-81383.52047905007</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11439,15 +11681,11 @@
         <v>-81383.52047905007</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11476,15 +11714,11 @@
         <v>-82898.64327905007</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11513,15 +11747,11 @@
         <v>-82898.64327905007</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11550,15 +11780,11 @@
         <v>-82898.64327905007</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11591,11 +11817,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11628,11 +11850,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11665,11 +11883,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11702,11 +11916,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11739,11 +11949,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11776,11 +11982,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11813,11 +12015,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11850,11 +12048,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11887,11 +12081,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11924,11 +12114,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11961,11 +12147,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11994,15 +12176,11 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12031,15 +12209,11 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12072,11 +12246,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12109,11 +12279,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12142,15 +12308,11 @@
         <v>-82946.93577905008</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12179,15 +12341,11 @@
         <v>-82461.56636003008</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12216,15 +12374,11 @@
         <v>-81555.50765344007</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12253,15 +12407,11 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12290,15 +12440,11 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12327,15 +12473,11 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12368,11 +12510,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12405,11 +12543,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12442,11 +12576,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12479,11 +12609,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12516,11 +12642,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12553,11 +12675,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12590,11 +12708,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12627,11 +12741,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12664,11 +12774,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12701,11 +12807,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12738,11 +12840,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12775,11 +12873,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12812,11 +12906,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12849,11 +12939,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12886,11 +12972,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12923,11 +13005,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12960,11 +13038,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12997,11 +13071,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13034,11 +13104,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13067,16 +13133,14 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
       <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -13102,7 +13166,7 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13443,6 +13507,6 @@
       <c r="M377" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest BCD.xlsx
+++ b/BackTest/2019-10-27 BackTest BCD.xlsx
@@ -7348,14 +7348,10 @@
         <v>-63373.90026003004</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>564</v>
-      </c>
-      <c r="J211" t="n">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7385,2334 +7381,1990 @@
         <v>-62198.90026003004</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>566</v>
+      </c>
+      <c r="C213" t="n">
+        <v>563</v>
+      </c>
+      <c r="D213" t="n">
+        <v>566</v>
+      </c>
+      <c r="E213" t="n">
+        <v>563</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5175.7253</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-67374.62556003005</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>567</v>
+      </c>
+      <c r="C214" t="n">
+        <v>566</v>
+      </c>
+      <c r="D214" t="n">
+        <v>567</v>
+      </c>
+      <c r="E214" t="n">
+        <v>566</v>
+      </c>
+      <c r="F214" t="n">
+        <v>77.369</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-67297.25656003004</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>567</v>
+      </c>
+      <c r="C215" t="n">
+        <v>567</v>
+      </c>
+      <c r="D215" t="n">
+        <v>567</v>
+      </c>
+      <c r="E215" t="n">
+        <v>567</v>
+      </c>
+      <c r="F215" t="n">
+        <v>58.0188</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-67239.23776003004</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>566</v>
+      </c>
+      <c r="C216" t="n">
+        <v>566</v>
+      </c>
+      <c r="D216" t="n">
+        <v>566</v>
+      </c>
+      <c r="E216" t="n">
+        <v>566</v>
+      </c>
+      <c r="F216" t="n">
+        <v>666.8714</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-67906.10916003004</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
         <v>565</v>
       </c>
-      <c r="J212" t="n">
+      <c r="C217" t="n">
+        <v>565</v>
+      </c>
+      <c r="D217" t="n">
+        <v>565</v>
+      </c>
+      <c r="E217" t="n">
+        <v>565</v>
+      </c>
+      <c r="F217" t="n">
+        <v>159.106</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-68065.21516003004</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>565</v>
+      </c>
+      <c r="C218" t="n">
+        <v>565</v>
+      </c>
+      <c r="D218" t="n">
+        <v>565</v>
+      </c>
+      <c r="E218" t="n">
+        <v>565</v>
+      </c>
+      <c r="F218" t="n">
+        <v>378</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-68065.21516003004</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>565</v>
+      </c>
+      <c r="C219" t="n">
+        <v>563</v>
+      </c>
+      <c r="D219" t="n">
+        <v>565</v>
+      </c>
+      <c r="E219" t="n">
+        <v>563</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3566.9274</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-71632.14256003004</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>565</v>
+      </c>
+      <c r="C220" t="n">
+        <v>563</v>
+      </c>
+      <c r="D220" t="n">
+        <v>565</v>
+      </c>
+      <c r="E220" t="n">
+        <v>563</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2134.5448</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-71632.14256003004</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>563</v>
+      </c>
+      <c r="C221" t="n">
+        <v>563</v>
+      </c>
+      <c r="D221" t="n">
+        <v>563</v>
+      </c>
+      <c r="E221" t="n">
+        <v>563</v>
+      </c>
+      <c r="F221" t="n">
+        <v>260.1614</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-71632.14256003004</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>571</v>
+      </c>
+      <c r="C222" t="n">
+        <v>571</v>
+      </c>
+      <c r="D222" t="n">
+        <v>571</v>
+      </c>
+      <c r="E222" t="n">
+        <v>571</v>
+      </c>
+      <c r="F222" t="n">
+        <v>6178.1371</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-65454.00546003004</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>571</v>
+      </c>
+      <c r="C223" t="n">
+        <v>571</v>
+      </c>
+      <c r="D223" t="n">
+        <v>571</v>
+      </c>
+      <c r="E223" t="n">
+        <v>571</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1008</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-65454.00546003004</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>565</v>
+      </c>
+      <c r="C224" t="n">
         <v>564</v>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="D224" t="n">
+        <v>565</v>
+      </c>
+      <c r="E224" t="n">
+        <v>564</v>
+      </c>
+      <c r="F224" t="n">
+        <v>816.799</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-66270.80446003005</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>565</v>
+      </c>
+      <c r="C225" t="n">
+        <v>565</v>
+      </c>
+      <c r="D225" t="n">
+        <v>565</v>
+      </c>
+      <c r="E225" t="n">
+        <v>565</v>
+      </c>
+      <c r="F225" t="n">
+        <v>414.9999</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-65855.80456003005</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>566</v>
+      </c>
+      <c r="C226" t="n">
+        <v>565</v>
+      </c>
+      <c r="D226" t="n">
+        <v>566</v>
+      </c>
+      <c r="E226" t="n">
+        <v>565</v>
+      </c>
+      <c r="F226" t="n">
+        <v>442.5548</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-65855.80456003005</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>564</v>
+      </c>
+      <c r="C227" t="n">
+        <v>564</v>
+      </c>
+      <c r="D227" t="n">
+        <v>564</v>
+      </c>
+      <c r="E227" t="n">
+        <v>564</v>
+      </c>
+      <c r="F227" t="n">
+        <v>315</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-66170.80456003005</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>564</v>
+      </c>
+      <c r="C228" t="n">
+        <v>564</v>
+      </c>
+      <c r="D228" t="n">
+        <v>564</v>
+      </c>
+      <c r="E228" t="n">
+        <v>564</v>
+      </c>
+      <c r="F228" t="n">
+        <v>67.05589999999999</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-66170.80456003005</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>567</v>
+      </c>
+      <c r="C229" t="n">
+        <v>567</v>
+      </c>
+      <c r="D229" t="n">
+        <v>567</v>
+      </c>
+      <c r="E229" t="n">
+        <v>567</v>
+      </c>
+      <c r="F229" t="n">
+        <v>101.716</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-66069.08856003005</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>566</v>
+      </c>
+      <c r="C230" t="n">
+        <v>566</v>
+      </c>
+      <c r="D230" t="n">
+        <v>566</v>
+      </c>
+      <c r="E230" t="n">
+        <v>566</v>
+      </c>
+      <c r="F230" t="n">
+        <v>219.7014</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-66288.78996003006</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>566</v>
+      </c>
+      <c r="C231" t="n">
+        <v>566</v>
+      </c>
+      <c r="D231" t="n">
+        <v>566</v>
+      </c>
+      <c r="E231" t="n">
+        <v>566</v>
+      </c>
+      <c r="F231" t="n">
+        <v>112.4747</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-66288.78996003006</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>567</v>
+      </c>
+      <c r="C232" t="n">
+        <v>567</v>
+      </c>
+      <c r="D232" t="n">
+        <v>567</v>
+      </c>
+      <c r="E232" t="n">
+        <v>566</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1781.1241</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-64507.66586003006</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>571</v>
+      </c>
+      <c r="C233" t="n">
+        <v>569</v>
+      </c>
+      <c r="D233" t="n">
+        <v>571</v>
+      </c>
+      <c r="E233" t="n">
+        <v>569</v>
+      </c>
+      <c r="F233" t="n">
+        <v>982.0907999999999</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-63525.57506003006</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>571</v>
+      </c>
+      <c r="C234" t="n">
+        <v>571</v>
+      </c>
+      <c r="D234" t="n">
+        <v>571</v>
+      </c>
+      <c r="E234" t="n">
+        <v>571</v>
+      </c>
+      <c r="F234" t="n">
+        <v>269.7898</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-63255.78526003006</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>570</v>
+      </c>
+      <c r="C235" t="n">
+        <v>570</v>
+      </c>
+      <c r="D235" t="n">
+        <v>570</v>
+      </c>
+      <c r="E235" t="n">
+        <v>570</v>
+      </c>
+      <c r="F235" t="n">
+        <v>273</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-63528.78526003006</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>570</v>
+      </c>
+      <c r="C236" t="n">
+        <v>570</v>
+      </c>
+      <c r="D236" t="n">
+        <v>570</v>
+      </c>
+      <c r="E236" t="n">
+        <v>570</v>
+      </c>
+      <c r="F236" t="n">
+        <v>307.8679</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-63528.78526003006</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>571</v>
+      </c>
+      <c r="C237" t="n">
+        <v>571</v>
+      </c>
+      <c r="D237" t="n">
+        <v>571</v>
+      </c>
+      <c r="E237" t="n">
+        <v>571</v>
+      </c>
+      <c r="F237" t="n">
+        <v>266.3992</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-63262.38606003006</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>569</v>
+      </c>
+      <c r="C238" t="n">
+        <v>569</v>
+      </c>
+      <c r="D238" t="n">
+        <v>569</v>
+      </c>
+      <c r="E238" t="n">
+        <v>569</v>
+      </c>
+      <c r="F238" t="n">
+        <v>342.711</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-63605.09706003006</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>569</v>
+      </c>
+      <c r="C239" t="n">
+        <v>568</v>
+      </c>
+      <c r="D239" t="n">
+        <v>569</v>
+      </c>
+      <c r="E239" t="n">
+        <v>568</v>
+      </c>
+      <c r="F239" t="n">
+        <v>213.9705</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-63819.06756003007</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>569</v>
+      </c>
+      <c r="C240" t="n">
+        <v>561</v>
+      </c>
+      <c r="D240" t="n">
+        <v>569</v>
+      </c>
+      <c r="E240" t="n">
+        <v>561</v>
+      </c>
+      <c r="F240" t="n">
+        <v>6896.3605</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-70715.42806003007</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>563</v>
+      </c>
+      <c r="C241" t="n">
+        <v>561</v>
+      </c>
+      <c r="D241" t="n">
+        <v>563</v>
+      </c>
+      <c r="E241" t="n">
+        <v>561</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2289.2798</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-70715.42806003007</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>566</v>
+      </c>
+      <c r="C242" t="n">
+        <v>566</v>
+      </c>
+      <c r="D242" t="n">
+        <v>566</v>
+      </c>
+      <c r="E242" t="n">
+        <v>566</v>
+      </c>
+      <c r="F242" t="n">
+        <v>431.1201</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-70284.30796003007</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>566</v>
+      </c>
+      <c r="C243" t="n">
+        <v>566</v>
+      </c>
+      <c r="D243" t="n">
+        <v>566</v>
+      </c>
+      <c r="E243" t="n">
+        <v>566</v>
+      </c>
+      <c r="F243" t="n">
+        <v>108.9999</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-70284.30796003007</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>564</v>
+      </c>
+      <c r="C244" t="n">
+        <v>564</v>
+      </c>
+      <c r="D244" t="n">
+        <v>564</v>
+      </c>
+      <c r="E244" t="n">
+        <v>564</v>
+      </c>
+      <c r="F244" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-70338.70796003006</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>564</v>
+      </c>
+      <c r="C245" t="n">
+        <v>564</v>
+      </c>
+      <c r="D245" t="n">
+        <v>564</v>
+      </c>
+      <c r="E245" t="n">
+        <v>564</v>
+      </c>
+      <c r="F245" t="n">
+        <v>92.41370000000001</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-70338.70796003006</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>563</v>
+      </c>
+      <c r="C246" t="n">
+        <v>563</v>
+      </c>
+      <c r="D246" t="n">
+        <v>563</v>
+      </c>
+      <c r="E246" t="n">
+        <v>563</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1002.6205</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-71341.32846003007</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>563</v>
+      </c>
+      <c r="C247" t="n">
+        <v>563</v>
+      </c>
+      <c r="D247" t="n">
+        <v>563</v>
+      </c>
+      <c r="E247" t="n">
+        <v>563</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2780.8669</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-71341.32846003007</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>566</v>
+      </c>
+      <c r="C248" t="n">
+        <v>566</v>
+      </c>
+      <c r="D248" t="n">
+        <v>566</v>
+      </c>
+      <c r="E248" t="n">
+        <v>566</v>
+      </c>
+      <c r="F248" t="n">
+        <v>4</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-71337.32846003007</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>566</v>
+      </c>
+      <c r="C249" t="n">
+        <v>566</v>
+      </c>
+      <c r="D249" t="n">
+        <v>566</v>
+      </c>
+      <c r="E249" t="n">
+        <v>566</v>
+      </c>
+      <c r="F249" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-71337.32846003007</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>566</v>
+      </c>
+      <c r="C250" t="n">
+        <v>570</v>
+      </c>
+      <c r="D250" t="n">
+        <v>570</v>
+      </c>
+      <c r="E250" t="n">
+        <v>566</v>
+      </c>
+      <c r="F250" t="n">
+        <v>11</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-71326.32846003007</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>570</v>
+      </c>
+      <c r="C251" t="n">
+        <v>576</v>
+      </c>
+      <c r="D251" t="n">
+        <v>576</v>
+      </c>
+      <c r="E251" t="n">
+        <v>570</v>
+      </c>
+      <c r="F251" t="n">
+        <v>658.2048</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-70668.12366003006</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>573</v>
+      </c>
+      <c r="C252" t="n">
+        <v>573</v>
+      </c>
+      <c r="D252" t="n">
+        <v>573</v>
+      </c>
+      <c r="E252" t="n">
+        <v>573</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4.4293</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-70672.55296003007</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>573</v>
+      </c>
+      <c r="C253" t="n">
+        <v>573</v>
+      </c>
+      <c r="D253" t="n">
+        <v>573</v>
+      </c>
+      <c r="E253" t="n">
+        <v>573</v>
+      </c>
+      <c r="F253" t="n">
+        <v>61.4507</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-70672.55296003007</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>573</v>
+      </c>
+      <c r="C254" t="n">
+        <v>573</v>
+      </c>
+      <c r="D254" t="n">
+        <v>573</v>
+      </c>
+      <c r="E254" t="n">
+        <v>573</v>
+      </c>
+      <c r="F254" t="n">
+        <v>300</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-70672.55296003007</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>571</v>
+      </c>
+      <c r="C255" t="n">
+        <v>570</v>
+      </c>
+      <c r="D255" t="n">
+        <v>571</v>
+      </c>
+      <c r="E255" t="n">
+        <v>570</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1722.7555</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-72395.30846003006</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>570</v>
+      </c>
+      <c r="C256" t="n">
+        <v>569</v>
+      </c>
+      <c r="D256" t="n">
+        <v>570</v>
+      </c>
+      <c r="E256" t="n">
+        <v>569</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2289.2799</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-74684.58836003006</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>571</v>
+      </c>
+      <c r="C257" t="n">
+        <v>574</v>
+      </c>
+      <c r="D257" t="n">
+        <v>574</v>
+      </c>
+      <c r="E257" t="n">
+        <v>571</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2516.0209</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-72168.56746003006</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>570</v>
+      </c>
+      <c r="C258" t="n">
+        <v>569</v>
+      </c>
+      <c r="D258" t="n">
+        <v>570</v>
+      </c>
+      <c r="E258" t="n">
+        <v>569</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2058.4316</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-74226.99906003005</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>570</v>
+      </c>
+      <c r="C259" t="n">
+        <v>567</v>
+      </c>
+      <c r="D259" t="n">
+        <v>570</v>
+      </c>
+      <c r="E259" t="n">
+        <v>567</v>
+      </c>
+      <c r="F259" t="n">
+        <v>4000.6415</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-78227.64056003005</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>569</v>
+      </c>
+      <c r="C260" t="n">
+        <v>567</v>
+      </c>
+      <c r="D260" t="n">
+        <v>569</v>
+      </c>
+      <c r="E260" t="n">
+        <v>567</v>
+      </c>
+      <c r="F260" t="n">
+        <v>7186.1371</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-78227.64056003005</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>566</v>
+      </c>
+      <c r="C261" t="n">
+        <v>565</v>
+      </c>
+      <c r="D261" t="n">
+        <v>566</v>
+      </c>
+      <c r="E261" t="n">
+        <v>565</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1575.0052</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-79802.64576003005</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>563</v>
+      </c>
+      <c r="C262" t="n">
+        <v>563</v>
+      </c>
+      <c r="D262" t="n">
+        <v>563</v>
+      </c>
+      <c r="E262" t="n">
+        <v>563</v>
+      </c>
+      <c r="F262" t="n">
+        <v>101.4617</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-79904.10746003005</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>563</v>
+      </c>
+      <c r="C263" t="n">
+        <v>563</v>
+      </c>
+      <c r="D263" t="n">
+        <v>563</v>
+      </c>
+      <c r="E263" t="n">
+        <v>563</v>
+      </c>
+      <c r="F263" t="n">
+        <v>101.2081</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-79904.10746003005</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>563</v>
+      </c>
+      <c r="C264" t="n">
+        <v>561</v>
+      </c>
+      <c r="D264" t="n">
+        <v>563</v>
+      </c>
+      <c r="E264" t="n">
+        <v>561</v>
+      </c>
+      <c r="F264" t="n">
+        <v>8147.0932</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-88051.20066003005</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>563</v>
+      </c>
+      <c r="C265" t="n">
+        <v>563</v>
+      </c>
+      <c r="D265" t="n">
+        <v>563</v>
+      </c>
+      <c r="E265" t="n">
+        <v>563</v>
+      </c>
+      <c r="F265" t="n">
+        <v>729.2402</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-87321.96046003005</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>563</v>
+      </c>
+      <c r="C266" t="n">
+        <v>563</v>
+      </c>
+      <c r="D266" t="n">
+        <v>563</v>
+      </c>
+      <c r="E266" t="n">
+        <v>563</v>
+      </c>
+      <c r="F266" t="n">
+        <v>117.1449</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-87321.96046003005</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>562</v>
+      </c>
+      <c r="C267" t="n">
+        <v>562</v>
+      </c>
+      <c r="D267" t="n">
+        <v>562</v>
+      </c>
+      <c r="E267" t="n">
+        <v>562</v>
+      </c>
+      <c r="F267" t="n">
+        <v>706</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-88027.96046003005</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>563</v>
+      </c>
+      <c r="J267" t="n">
+        <v>563</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>566</v>
+      </c>
+      <c r="C268" t="n">
+        <v>566</v>
+      </c>
+      <c r="D268" t="n">
+        <v>566</v>
+      </c>
+      <c r="E268" t="n">
+        <v>566</v>
+      </c>
+      <c r="F268" t="n">
+        <v>11.5234</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-88016.43706003005</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>562</v>
+      </c>
+      <c r="J268" t="n">
+        <v>563</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>566</v>
-      </c>
-      <c r="C213" t="n">
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>566</v>
+      </c>
+      <c r="C269" t="n">
+        <v>566</v>
+      </c>
+      <c r="D269" t="n">
+        <v>566</v>
+      </c>
+      <c r="E269" t="n">
+        <v>566</v>
+      </c>
+      <c r="F269" t="n">
+        <v>657.9999</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-88016.43706003005</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>566</v>
+      </c>
+      <c r="J269" t="n">
         <v>563</v>
       </c>
-      <c r="D213" t="n">
-        <v>566</v>
-      </c>
-      <c r="E213" t="n">
-        <v>563</v>
-      </c>
-      <c r="F213" t="n">
-        <v>5175.7253</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-67374.62556003005</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>564</v>
-      </c>
-      <c r="K213" t="inlineStr">
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>566</v>
+      </c>
+      <c r="C270" t="n">
+        <v>566</v>
+      </c>
+      <c r="D270" t="n">
+        <v>566</v>
+      </c>
+      <c r="E270" t="n">
+        <v>566</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1008</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-88016.43706003005</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>566</v>
+      </c>
+      <c r="J270" t="n">
+        <v>566</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>566</v>
+      </c>
+      <c r="C271" t="n">
+        <v>562</v>
+      </c>
+      <c r="D271" t="n">
+        <v>566</v>
+      </c>
+      <c r="E271" t="n">
+        <v>561</v>
+      </c>
+      <c r="F271" t="n">
+        <v>10191.5488</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-98207.98586003005</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>566</v>
+      </c>
+      <c r="J271" t="n">
+        <v>566</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>567</v>
-      </c>
-      <c r="C214" t="n">
-        <v>566</v>
-      </c>
-      <c r="D214" t="n">
-        <v>567</v>
-      </c>
-      <c r="E214" t="n">
-        <v>566</v>
-      </c>
-      <c r="F214" t="n">
-        <v>77.369</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-67297.25656003004</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>564</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>567</v>
-      </c>
-      <c r="C215" t="n">
-        <v>567</v>
-      </c>
-      <c r="D215" t="n">
-        <v>567</v>
-      </c>
-      <c r="E215" t="n">
-        <v>567</v>
-      </c>
-      <c r="F215" t="n">
-        <v>58.0188</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-67239.23776003004</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>564</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>566</v>
-      </c>
-      <c r="C216" t="n">
-        <v>566</v>
-      </c>
-      <c r="D216" t="n">
-        <v>566</v>
-      </c>
-      <c r="E216" t="n">
-        <v>566</v>
-      </c>
-      <c r="F216" t="n">
-        <v>666.8714</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-67906.10916003004</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>564</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>565</v>
-      </c>
-      <c r="C217" t="n">
-        <v>565</v>
-      </c>
-      <c r="D217" t="n">
-        <v>565</v>
-      </c>
-      <c r="E217" t="n">
-        <v>565</v>
-      </c>
-      <c r="F217" t="n">
-        <v>159.106</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-68065.21516003004</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>564</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>565</v>
-      </c>
-      <c r="C218" t="n">
-        <v>565</v>
-      </c>
-      <c r="D218" t="n">
-        <v>565</v>
-      </c>
-      <c r="E218" t="n">
-        <v>565</v>
-      </c>
-      <c r="F218" t="n">
-        <v>378</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-68065.21516003004</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>564</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>565</v>
-      </c>
-      <c r="C219" t="n">
-        <v>563</v>
-      </c>
-      <c r="D219" t="n">
-        <v>565</v>
-      </c>
-      <c r="E219" t="n">
-        <v>563</v>
-      </c>
-      <c r="F219" t="n">
-        <v>3566.9274</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-71632.14256003004</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>564</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>565</v>
-      </c>
-      <c r="C220" t="n">
-        <v>563</v>
-      </c>
-      <c r="D220" t="n">
-        <v>565</v>
-      </c>
-      <c r="E220" t="n">
-        <v>563</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2134.5448</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-71632.14256003004</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>564</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>563</v>
-      </c>
-      <c r="C221" t="n">
-        <v>563</v>
-      </c>
-      <c r="D221" t="n">
-        <v>563</v>
-      </c>
-      <c r="E221" t="n">
-        <v>563</v>
-      </c>
-      <c r="F221" t="n">
-        <v>260.1614</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-71632.14256003004</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>563</v>
-      </c>
-      <c r="J221" t="n">
-        <v>564</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>571</v>
-      </c>
-      <c r="C222" t="n">
-        <v>571</v>
-      </c>
-      <c r="D222" t="n">
-        <v>571</v>
-      </c>
-      <c r="E222" t="n">
-        <v>571</v>
-      </c>
-      <c r="F222" t="n">
-        <v>6178.1371</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-65454.00546003004</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>563</v>
-      </c>
-      <c r="J222" t="n">
-        <v>564</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>571</v>
-      </c>
-      <c r="C223" t="n">
-        <v>571</v>
-      </c>
-      <c r="D223" t="n">
-        <v>571</v>
-      </c>
-      <c r="E223" t="n">
-        <v>571</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1008</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-65454.00546003004</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>564</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>565</v>
-      </c>
-      <c r="C224" t="n">
-        <v>564</v>
-      </c>
-      <c r="D224" t="n">
-        <v>565</v>
-      </c>
-      <c r="E224" t="n">
-        <v>564</v>
-      </c>
-      <c r="F224" t="n">
-        <v>816.799</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-66270.80446003005</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>564</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>565</v>
-      </c>
-      <c r="C225" t="n">
-        <v>565</v>
-      </c>
-      <c r="D225" t="n">
-        <v>565</v>
-      </c>
-      <c r="E225" t="n">
-        <v>565</v>
-      </c>
-      <c r="F225" t="n">
-        <v>414.9999</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-65855.80456003005</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>564</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>566</v>
-      </c>
-      <c r="C226" t="n">
-        <v>565</v>
-      </c>
-      <c r="D226" t="n">
-        <v>566</v>
-      </c>
-      <c r="E226" t="n">
-        <v>565</v>
-      </c>
-      <c r="F226" t="n">
-        <v>442.5548</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-65855.80456003005</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>564</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>564</v>
-      </c>
-      <c r="C227" t="n">
-        <v>564</v>
-      </c>
-      <c r="D227" t="n">
-        <v>564</v>
-      </c>
-      <c r="E227" t="n">
-        <v>564</v>
-      </c>
-      <c r="F227" t="n">
-        <v>315</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-66170.80456003005</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>564</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>564</v>
-      </c>
-      <c r="C228" t="n">
-        <v>564</v>
-      </c>
-      <c r="D228" t="n">
-        <v>564</v>
-      </c>
-      <c r="E228" t="n">
-        <v>564</v>
-      </c>
-      <c r="F228" t="n">
-        <v>67.05589999999999</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-66170.80456003005</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>564</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>567</v>
-      </c>
-      <c r="C229" t="n">
-        <v>567</v>
-      </c>
-      <c r="D229" t="n">
-        <v>567</v>
-      </c>
-      <c r="E229" t="n">
-        <v>567</v>
-      </c>
-      <c r="F229" t="n">
-        <v>101.716</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-66069.08856003005</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>564</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>566</v>
-      </c>
-      <c r="C230" t="n">
-        <v>566</v>
-      </c>
-      <c r="D230" t="n">
-        <v>566</v>
-      </c>
-      <c r="E230" t="n">
-        <v>566</v>
-      </c>
-      <c r="F230" t="n">
-        <v>219.7014</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-66288.78996003006</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>564</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>566</v>
-      </c>
-      <c r="C231" t="n">
-        <v>566</v>
-      </c>
-      <c r="D231" t="n">
-        <v>566</v>
-      </c>
-      <c r="E231" t="n">
-        <v>566</v>
-      </c>
-      <c r="F231" t="n">
-        <v>112.4747</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-66288.78996003006</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>564</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>567</v>
-      </c>
-      <c r="C232" t="n">
-        <v>567</v>
-      </c>
-      <c r="D232" t="n">
-        <v>567</v>
-      </c>
-      <c r="E232" t="n">
-        <v>566</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1781.1241</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-64507.66586003006</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>564</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>571</v>
-      </c>
-      <c r="C233" t="n">
-        <v>569</v>
-      </c>
-      <c r="D233" t="n">
-        <v>571</v>
-      </c>
-      <c r="E233" t="n">
-        <v>569</v>
-      </c>
-      <c r="F233" t="n">
-        <v>982.0907999999999</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-63525.57506003006</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>564</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>571</v>
-      </c>
-      <c r="C234" t="n">
-        <v>571</v>
-      </c>
-      <c r="D234" t="n">
-        <v>571</v>
-      </c>
-      <c r="E234" t="n">
-        <v>571</v>
-      </c>
-      <c r="F234" t="n">
-        <v>269.7898</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-63255.78526003006</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>564</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>570</v>
-      </c>
-      <c r="C235" t="n">
-        <v>570</v>
-      </c>
-      <c r="D235" t="n">
-        <v>570</v>
-      </c>
-      <c r="E235" t="n">
-        <v>570</v>
-      </c>
-      <c r="F235" t="n">
-        <v>273</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-63528.78526003006</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>564</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>570</v>
-      </c>
-      <c r="C236" t="n">
-        <v>570</v>
-      </c>
-      <c r="D236" t="n">
-        <v>570</v>
-      </c>
-      <c r="E236" t="n">
-        <v>570</v>
-      </c>
-      <c r="F236" t="n">
-        <v>307.8679</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-63528.78526003006</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>564</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>571</v>
-      </c>
-      <c r="C237" t="n">
-        <v>571</v>
-      </c>
-      <c r="D237" t="n">
-        <v>571</v>
-      </c>
-      <c r="E237" t="n">
-        <v>571</v>
-      </c>
-      <c r="F237" t="n">
-        <v>266.3992</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-63262.38606003006</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>564</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>569</v>
-      </c>
-      <c r="C238" t="n">
-        <v>569</v>
-      </c>
-      <c r="D238" t="n">
-        <v>569</v>
-      </c>
-      <c r="E238" t="n">
-        <v>569</v>
-      </c>
-      <c r="F238" t="n">
-        <v>342.711</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-63605.09706003006</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>564</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>569</v>
-      </c>
-      <c r="C239" t="n">
-        <v>568</v>
-      </c>
-      <c r="D239" t="n">
-        <v>569</v>
-      </c>
-      <c r="E239" t="n">
-        <v>568</v>
-      </c>
-      <c r="F239" t="n">
-        <v>213.9705</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-63819.06756003007</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>564</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>569</v>
-      </c>
-      <c r="C240" t="n">
-        <v>561</v>
-      </c>
-      <c r="D240" t="n">
-        <v>569</v>
-      </c>
-      <c r="E240" t="n">
-        <v>561</v>
-      </c>
-      <c r="F240" t="n">
-        <v>6896.3605</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-70715.42806003007</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>564</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>563</v>
-      </c>
-      <c r="C241" t="n">
-        <v>561</v>
-      </c>
-      <c r="D241" t="n">
-        <v>563</v>
-      </c>
-      <c r="E241" t="n">
-        <v>561</v>
-      </c>
-      <c r="F241" t="n">
-        <v>2289.2798</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-70715.42806003007</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>564</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>566</v>
-      </c>
-      <c r="C242" t="n">
-        <v>566</v>
-      </c>
-      <c r="D242" t="n">
-        <v>566</v>
-      </c>
-      <c r="E242" t="n">
-        <v>566</v>
-      </c>
-      <c r="F242" t="n">
-        <v>431.1201</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-70284.30796003007</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>564</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>566</v>
-      </c>
-      <c r="C243" t="n">
-        <v>566</v>
-      </c>
-      <c r="D243" t="n">
-        <v>566</v>
-      </c>
-      <c r="E243" t="n">
-        <v>566</v>
-      </c>
-      <c r="F243" t="n">
-        <v>108.9999</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-70284.30796003007</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>564</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>564</v>
-      </c>
-      <c r="C244" t="n">
-        <v>564</v>
-      </c>
-      <c r="D244" t="n">
-        <v>564</v>
-      </c>
-      <c r="E244" t="n">
-        <v>564</v>
-      </c>
-      <c r="F244" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-70338.70796003006</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>564</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>564</v>
-      </c>
-      <c r="C245" t="n">
-        <v>564</v>
-      </c>
-      <c r="D245" t="n">
-        <v>564</v>
-      </c>
-      <c r="E245" t="n">
-        <v>564</v>
-      </c>
-      <c r="F245" t="n">
-        <v>92.41370000000001</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-70338.70796003006</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>564</v>
-      </c>
-      <c r="J245" t="n">
-        <v>564</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>563</v>
-      </c>
-      <c r="C246" t="n">
-        <v>563</v>
-      </c>
-      <c r="D246" t="n">
-        <v>563</v>
-      </c>
-      <c r="E246" t="n">
-        <v>563</v>
-      </c>
-      <c r="F246" t="n">
-        <v>1002.6205</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-71341.32846003007</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>564</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>563</v>
-      </c>
-      <c r="C247" t="n">
-        <v>563</v>
-      </c>
-      <c r="D247" t="n">
-        <v>563</v>
-      </c>
-      <c r="E247" t="n">
-        <v>563</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2780.8669</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-71341.32846003007</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>564</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>566</v>
-      </c>
-      <c r="C248" t="n">
-        <v>566</v>
-      </c>
-      <c r="D248" t="n">
-        <v>566</v>
-      </c>
-      <c r="E248" t="n">
-        <v>566</v>
-      </c>
-      <c r="F248" t="n">
-        <v>4</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-71337.32846003007</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>564</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>566</v>
-      </c>
-      <c r="C249" t="n">
-        <v>566</v>
-      </c>
-      <c r="D249" t="n">
-        <v>566</v>
-      </c>
-      <c r="E249" t="n">
-        <v>566</v>
-      </c>
-      <c r="F249" t="n">
-        <v>55.88</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-71337.32846003007</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>566</v>
-      </c>
-      <c r="J249" t="n">
-        <v>564</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>566</v>
-      </c>
-      <c r="C250" t="n">
-        <v>570</v>
-      </c>
-      <c r="D250" t="n">
-        <v>570</v>
-      </c>
-      <c r="E250" t="n">
-        <v>566</v>
-      </c>
-      <c r="F250" t="n">
-        <v>11</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-71326.32846003007</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>564</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>570</v>
-      </c>
-      <c r="C251" t="n">
-        <v>576</v>
-      </c>
-      <c r="D251" t="n">
-        <v>576</v>
-      </c>
-      <c r="E251" t="n">
-        <v>570</v>
-      </c>
-      <c r="F251" t="n">
-        <v>658.2048</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-70668.12366003006</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>564</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>573</v>
-      </c>
-      <c r="C252" t="n">
-        <v>573</v>
-      </c>
-      <c r="D252" t="n">
-        <v>573</v>
-      </c>
-      <c r="E252" t="n">
-        <v>573</v>
-      </c>
-      <c r="F252" t="n">
-        <v>4.4293</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-70672.55296003007</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>564</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>573</v>
-      </c>
-      <c r="C253" t="n">
-        <v>573</v>
-      </c>
-      <c r="D253" t="n">
-        <v>573</v>
-      </c>
-      <c r="E253" t="n">
-        <v>573</v>
-      </c>
-      <c r="F253" t="n">
-        <v>61.4507</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-70672.55296003007</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>564</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>573</v>
-      </c>
-      <c r="C254" t="n">
-        <v>573</v>
-      </c>
-      <c r="D254" t="n">
-        <v>573</v>
-      </c>
-      <c r="E254" t="n">
-        <v>573</v>
-      </c>
-      <c r="F254" t="n">
-        <v>300</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-70672.55296003007</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>564</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>571</v>
-      </c>
-      <c r="C255" t="n">
-        <v>570</v>
-      </c>
-      <c r="D255" t="n">
-        <v>571</v>
-      </c>
-      <c r="E255" t="n">
-        <v>570</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1722.7555</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-72395.30846003006</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>564</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>570</v>
-      </c>
-      <c r="C256" t="n">
-        <v>569</v>
-      </c>
-      <c r="D256" t="n">
-        <v>570</v>
-      </c>
-      <c r="E256" t="n">
-        <v>569</v>
-      </c>
-      <c r="F256" t="n">
-        <v>2289.2799</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-74684.58836003006</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>564</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>571</v>
-      </c>
-      <c r="C257" t="n">
-        <v>574</v>
-      </c>
-      <c r="D257" t="n">
-        <v>574</v>
-      </c>
-      <c r="E257" t="n">
-        <v>571</v>
-      </c>
-      <c r="F257" t="n">
-        <v>2516.0209</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-72168.56746003006</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>564</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>570</v>
-      </c>
-      <c r="C258" t="n">
-        <v>569</v>
-      </c>
-      <c r="D258" t="n">
-        <v>570</v>
-      </c>
-      <c r="E258" t="n">
-        <v>569</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2058.4316</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-74226.99906003005</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>564</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>570</v>
-      </c>
-      <c r="C259" t="n">
-        <v>567</v>
-      </c>
-      <c r="D259" t="n">
-        <v>570</v>
-      </c>
-      <c r="E259" t="n">
-        <v>567</v>
-      </c>
-      <c r="F259" t="n">
-        <v>4000.6415</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-78227.64056003005</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>564</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>569</v>
-      </c>
-      <c r="C260" t="n">
-        <v>567</v>
-      </c>
-      <c r="D260" t="n">
-        <v>569</v>
-      </c>
-      <c r="E260" t="n">
-        <v>567</v>
-      </c>
-      <c r="F260" t="n">
-        <v>7186.1371</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-78227.64056003005</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>564</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>566</v>
-      </c>
-      <c r="C261" t="n">
-        <v>565</v>
-      </c>
-      <c r="D261" t="n">
-        <v>566</v>
-      </c>
-      <c r="E261" t="n">
-        <v>565</v>
-      </c>
-      <c r="F261" t="n">
-        <v>1575.0052</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-79802.64576003005</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>564</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>563</v>
-      </c>
-      <c r="C262" t="n">
-        <v>563</v>
-      </c>
-      <c r="D262" t="n">
-        <v>563</v>
-      </c>
-      <c r="E262" t="n">
-        <v>563</v>
-      </c>
-      <c r="F262" t="n">
-        <v>101.4617</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-79904.10746003005</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>564</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>563</v>
-      </c>
-      <c r="C263" t="n">
-        <v>563</v>
-      </c>
-      <c r="D263" t="n">
-        <v>563</v>
-      </c>
-      <c r="E263" t="n">
-        <v>563</v>
-      </c>
-      <c r="F263" t="n">
-        <v>101.2081</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-79904.10746003005</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>564</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>563</v>
-      </c>
-      <c r="C264" t="n">
-        <v>561</v>
-      </c>
-      <c r="D264" t="n">
-        <v>563</v>
-      </c>
-      <c r="E264" t="n">
-        <v>561</v>
-      </c>
-      <c r="F264" t="n">
-        <v>8147.0932</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-88051.20066003005</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>564</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>563</v>
-      </c>
-      <c r="C265" t="n">
-        <v>563</v>
-      </c>
-      <c r="D265" t="n">
-        <v>563</v>
-      </c>
-      <c r="E265" t="n">
-        <v>563</v>
-      </c>
-      <c r="F265" t="n">
-        <v>729.2402</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-87321.96046003005</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>564</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>563</v>
-      </c>
-      <c r="C266" t="n">
-        <v>563</v>
-      </c>
-      <c r="D266" t="n">
-        <v>563</v>
-      </c>
-      <c r="E266" t="n">
-        <v>563</v>
-      </c>
-      <c r="F266" t="n">
-        <v>117.1449</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-87321.96046003005</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>564</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>562</v>
-      </c>
-      <c r="C267" t="n">
-        <v>562</v>
-      </c>
-      <c r="D267" t="n">
-        <v>562</v>
-      </c>
-      <c r="E267" t="n">
-        <v>562</v>
-      </c>
-      <c r="F267" t="n">
-        <v>706</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-88027.96046003005</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>564</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>566</v>
-      </c>
-      <c r="C268" t="n">
-        <v>566</v>
-      </c>
-      <c r="D268" t="n">
-        <v>566</v>
-      </c>
-      <c r="E268" t="n">
-        <v>566</v>
-      </c>
-      <c r="F268" t="n">
-        <v>11.5234</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-88016.43706003005</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>562</v>
-      </c>
-      <c r="J268" t="n">
-        <v>564</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>566</v>
-      </c>
-      <c r="C269" t="n">
-        <v>566</v>
-      </c>
-      <c r="D269" t="n">
-        <v>566</v>
-      </c>
-      <c r="E269" t="n">
-        <v>566</v>
-      </c>
-      <c r="F269" t="n">
-        <v>657.9999</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-88016.43706003005</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>566</v>
-      </c>
-      <c r="J269" t="n">
-        <v>564</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>566</v>
-      </c>
-      <c r="C270" t="n">
-        <v>566</v>
-      </c>
-      <c r="D270" t="n">
-        <v>566</v>
-      </c>
-      <c r="E270" t="n">
-        <v>566</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1008</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-88016.43706003005</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>564</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>566</v>
-      </c>
-      <c r="C271" t="n">
-        <v>562</v>
-      </c>
-      <c r="D271" t="n">
-        <v>566</v>
-      </c>
-      <c r="E271" t="n">
-        <v>561</v>
-      </c>
-      <c r="F271" t="n">
-        <v>10191.5488</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-98207.98586003005</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>566</v>
-      </c>
-      <c r="J271" t="n">
-        <v>564</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9745,7 +9397,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9786,7 +9438,7 @@
         <v>562</v>
       </c>
       <c r="J273" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9821,13 +9473,11 @@
         <v>-98469.20936003006</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>566</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9868,7 +9518,7 @@
         <v>565</v>
       </c>
       <c r="J275" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9909,7 +9559,7 @@
         <v>566</v>
       </c>
       <c r="J276" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9950,7 +9600,7 @@
         <v>566</v>
       </c>
       <c r="J277" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9991,7 +9641,7 @@
         <v>561</v>
       </c>
       <c r="J278" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10032,7 +9682,7 @@
         <v>565</v>
       </c>
       <c r="J279" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10067,11 +9717,13 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>566</v>
+      </c>
       <c r="J280" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10106,11 +9758,13 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>570</v>
+      </c>
       <c r="J281" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10149,7 +9803,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10188,7 +9842,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10227,7 +9881,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10266,7 +9920,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10305,7 +9959,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10344,7 +9998,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10383,7 +10037,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10422,7 +10076,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10461,7 +10115,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10500,7 +10154,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10535,11 +10189,13 @@
         <v>-93737.15798890007</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>570</v>
+      </c>
       <c r="J292" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10574,11 +10230,13 @@
         <v>-93208.80058890008</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>570</v>
+      </c>
       <c r="J293" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10613,11 +10271,13 @@
         <v>-92385.80058890008</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>571</v>
+      </c>
       <c r="J294" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10652,11 +10312,13 @@
         <v>-92385.80058890008</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>572</v>
+      </c>
       <c r="J295" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10691,11 +10353,13 @@
         <v>-91653.80058890008</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>572</v>
+      </c>
       <c r="J296" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10730,11 +10394,13 @@
         <v>-84216.34587905007</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>573</v>
+      </c>
       <c r="J297" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10773,7 +10439,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10812,7 +10478,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10851,7 +10517,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10890,7 +10556,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10929,7 +10595,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10968,7 +10634,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11007,7 +10673,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11046,7 +10712,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11085,7 +10751,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11124,7 +10790,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11163,7 +10829,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11202,7 +10868,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11241,7 +10907,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11280,7 +10946,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11319,7 +10985,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11358,7 +11024,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11397,7 +11063,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11436,7 +11102,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11475,7 +11141,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11510,1374 +11176,1622 @@
         <v>-81059.11837905008</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>588</v>
+      </c>
+      <c r="C318" t="n">
+        <v>588</v>
+      </c>
+      <c r="D318" t="n">
+        <v>588</v>
+      </c>
+      <c r="E318" t="n">
+        <v>588</v>
+      </c>
+      <c r="F318" t="n">
+        <v>2755.22</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-81059.11837905008</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>566</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>585</v>
+      </c>
+      <c r="C319" t="n">
+        <v>585</v>
+      </c>
+      <c r="D319" t="n">
+        <v>586</v>
+      </c>
+      <c r="E319" t="n">
+        <v>585</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1288.0517</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-82347.17007905008</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>566</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>588</v>
+      </c>
+      <c r="C320" t="n">
+        <v>588</v>
+      </c>
+      <c r="D320" t="n">
+        <v>588</v>
+      </c>
+      <c r="E320" t="n">
+        <v>588</v>
+      </c>
+      <c r="F320" t="n">
+        <v>963.6496</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-81383.52047905007</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>566</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>588</v>
+      </c>
+      <c r="C321" t="n">
+        <v>588</v>
+      </c>
+      <c r="D321" t="n">
+        <v>588</v>
+      </c>
+      <c r="E321" t="n">
+        <v>588</v>
+      </c>
+      <c r="F321" t="n">
+        <v>165.8163</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-81383.52047905007</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>566</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>588</v>
+      </c>
+      <c r="C322" t="n">
+        <v>588</v>
+      </c>
+      <c r="D322" t="n">
+        <v>588</v>
+      </c>
+      <c r="E322" t="n">
+        <v>588</v>
+      </c>
+      <c r="F322" t="n">
+        <v>17.0085</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-81383.52047905007</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>566</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>586</v>
+      </c>
+      <c r="C323" t="n">
+        <v>586</v>
+      </c>
+      <c r="D323" t="n">
+        <v>586</v>
+      </c>
+      <c r="E323" t="n">
+        <v>586</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1515.1228</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-82898.64327905007</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>566</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>586</v>
+      </c>
+      <c r="C324" t="n">
+        <v>586</v>
+      </c>
+      <c r="D324" t="n">
+        <v>586</v>
+      </c>
+      <c r="E324" t="n">
+        <v>586</v>
+      </c>
+      <c r="F324" t="n">
+        <v>2245.906</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-82898.64327905007</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>566</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>586</v>
+      </c>
+      <c r="C325" t="n">
+        <v>586</v>
+      </c>
+      <c r="D325" t="n">
+        <v>586</v>
+      </c>
+      <c r="E325" t="n">
+        <v>586</v>
+      </c>
+      <c r="F325" t="n">
+        <v>580.3691</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-82898.64327905007</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>566</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>586</v>
+      </c>
+      <c r="C326" t="n">
+        <v>586</v>
+      </c>
+      <c r="D326" t="n">
+        <v>586</v>
+      </c>
+      <c r="E326" t="n">
+        <v>586</v>
+      </c>
+      <c r="F326" t="n">
+        <v>783.0759</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-82898.64327905007</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>566</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>586</v>
+      </c>
+      <c r="C327" t="n">
+        <v>586</v>
+      </c>
+      <c r="D327" t="n">
+        <v>586</v>
+      </c>
+      <c r="E327" t="n">
+        <v>586</v>
+      </c>
+      <c r="F327" t="n">
+        <v>48.2151</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-82898.64327905007</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>566</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>585</v>
+      </c>
+      <c r="C328" t="n">
+        <v>586</v>
+      </c>
+      <c r="D328" t="n">
+        <v>586</v>
+      </c>
+      <c r="E328" t="n">
+        <v>585</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1101.2116</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-82898.64327905007</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>566</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>585</v>
+      </c>
+      <c r="C329" t="n">
+        <v>585</v>
+      </c>
+      <c r="D329" t="n">
+        <v>585</v>
+      </c>
+      <c r="E329" t="n">
+        <v>585</v>
+      </c>
+      <c r="F329" t="n">
+        <v>887.8411</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-83786.48437905007</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>566</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>580</v>
+      </c>
+      <c r="C330" t="n">
+        <v>584</v>
+      </c>
+      <c r="D330" t="n">
+        <v>584</v>
+      </c>
+      <c r="E330" t="n">
+        <v>580</v>
+      </c>
+      <c r="F330" t="n">
+        <v>2131.5534</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-85918.03777905008</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>566</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>582</v>
+      </c>
+      <c r="C331" t="n">
+        <v>582</v>
+      </c>
+      <c r="D331" t="n">
+        <v>582</v>
+      </c>
+      <c r="E331" t="n">
+        <v>582</v>
+      </c>
+      <c r="F331" t="n">
+        <v>483.441</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-86401.47877905008</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>566</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>581</v>
+      </c>
+      <c r="C332" t="n">
+        <v>581</v>
+      </c>
+      <c r="D332" t="n">
+        <v>581</v>
+      </c>
+      <c r="E332" t="n">
+        <v>581</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2460.0697</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-88861.54847905008</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>566</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>581</v>
+      </c>
+      <c r="C333" t="n">
+        <v>584</v>
+      </c>
+      <c r="D333" t="n">
+        <v>584</v>
+      </c>
+      <c r="E333" t="n">
+        <v>581</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3498.7943</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-85362.75417905008</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>566</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>585</v>
+      </c>
+      <c r="C334" t="n">
+        <v>585</v>
+      </c>
+      <c r="D334" t="n">
+        <v>585</v>
+      </c>
+      <c r="E334" t="n">
+        <v>585</v>
+      </c>
+      <c r="F334" t="n">
+        <v>740</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-84622.75417905008</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>566</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>585</v>
+      </c>
+      <c r="C335" t="n">
+        <v>585</v>
+      </c>
+      <c r="D335" t="n">
+        <v>585</v>
+      </c>
+      <c r="E335" t="n">
+        <v>585</v>
+      </c>
+      <c r="F335" t="n">
+        <v>185</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-84622.75417905008</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>566</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>585</v>
+      </c>
+      <c r="C336" t="n">
+        <v>585</v>
+      </c>
+      <c r="D336" t="n">
+        <v>585</v>
+      </c>
+      <c r="E336" t="n">
+        <v>585</v>
+      </c>
+      <c r="F336" t="n">
+        <v>1438.66</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-84622.75417905008</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>566</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>586</v>
+      </c>
+      <c r="C337" t="n">
+        <v>586</v>
+      </c>
+      <c r="D337" t="n">
+        <v>586</v>
+      </c>
+      <c r="E337" t="n">
+        <v>586</v>
+      </c>
+      <c r="F337" t="n">
+        <v>879.9078</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-83742.84637905008</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>566</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>586</v>
+      </c>
+      <c r="C338" t="n">
+        <v>586</v>
+      </c>
+      <c r="D338" t="n">
+        <v>586</v>
+      </c>
+      <c r="E338" t="n">
+        <v>586</v>
+      </c>
+      <c r="F338" t="n">
+        <v>352.9163</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-83742.84637905008</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>566</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>586</v>
+      </c>
+      <c r="C339" t="n">
+        <v>586</v>
+      </c>
+      <c r="D339" t="n">
+        <v>586</v>
+      </c>
+      <c r="E339" t="n">
+        <v>586</v>
+      </c>
+      <c r="F339" t="n">
+        <v>135.8864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-83742.84637905008</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>566</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>586</v>
+      </c>
+      <c r="C340" t="n">
+        <v>586</v>
+      </c>
+      <c r="D340" t="n">
+        <v>586</v>
+      </c>
+      <c r="E340" t="n">
+        <v>586</v>
+      </c>
+      <c r="F340" t="n">
+        <v>265.884</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-83742.84637905008</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>566</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>587</v>
+      </c>
+      <c r="C341" t="n">
+        <v>588</v>
+      </c>
+      <c r="D341" t="n">
+        <v>588</v>
+      </c>
+      <c r="E341" t="n">
+        <v>587</v>
+      </c>
+      <c r="F341" t="n">
+        <v>795.9106</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-82946.93577905008</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>566</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>589</v>
+      </c>
+      <c r="C342" t="n">
+        <v>589</v>
+      </c>
+      <c r="D342" t="n">
+        <v>589</v>
+      </c>
+      <c r="E342" t="n">
+        <v>589</v>
+      </c>
+      <c r="F342" t="n">
+        <v>485.36941902</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-82461.56636003008</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>566</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>590</v>
+      </c>
+      <c r="C343" t="n">
+        <v>591</v>
+      </c>
+      <c r="D343" t="n">
+        <v>591</v>
+      </c>
+      <c r="E343" t="n">
+        <v>590</v>
+      </c>
+      <c r="F343" t="n">
+        <v>906.05870659</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-81555.50765344007</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>566</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>591</v>
+      </c>
+      <c r="C344" t="n">
+        <v>590</v>
+      </c>
+      <c r="D344" t="n">
+        <v>591</v>
+      </c>
+      <c r="E344" t="n">
+        <v>590</v>
+      </c>
+      <c r="F344" t="n">
+        <v>317.1218</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-81872.62945344007</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>566</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>590</v>
+      </c>
+      <c r="C345" t="n">
+        <v>590</v>
+      </c>
+      <c r="D345" t="n">
+        <v>590</v>
+      </c>
+      <c r="E345" t="n">
+        <v>590</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1109.1791</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-81872.62945344007</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>566</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>590</v>
+      </c>
+      <c r="C346" t="n">
+        <v>590</v>
+      </c>
+      <c r="D346" t="n">
+        <v>590</v>
+      </c>
+      <c r="E346" t="n">
+        <v>590</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1474.0405</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-81872.62945344007</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>566</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>591</v>
+      </c>
+      <c r="C347" t="n">
+        <v>592</v>
+      </c>
+      <c r="D347" t="n">
+        <v>592</v>
+      </c>
+      <c r="E347" t="n">
+        <v>591</v>
+      </c>
+      <c r="F347" t="n">
+        <v>959.2936934099999</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-80913.33576003007</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>566</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>593</v>
+      </c>
+      <c r="C348" t="n">
+        <v>593</v>
+      </c>
+      <c r="D348" t="n">
+        <v>593</v>
+      </c>
+      <c r="E348" t="n">
+        <v>593</v>
+      </c>
+      <c r="F348" t="n">
+        <v>5</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-80908.33576003007</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>566</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>590</v>
+      </c>
+      <c r="C349" t="n">
+        <v>590</v>
+      </c>
+      <c r="D349" t="n">
+        <v>592</v>
+      </c>
+      <c r="E349" t="n">
+        <v>590</v>
+      </c>
+      <c r="F349" t="n">
+        <v>433.3209</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-81341.65666003007</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>566</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>591</v>
+      </c>
+      <c r="C350" t="n">
+        <v>589</v>
+      </c>
+      <c r="D350" t="n">
+        <v>592</v>
+      </c>
+      <c r="E350" t="n">
+        <v>589</v>
+      </c>
+      <c r="F350" t="n">
+        <v>2911.8498</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-84253.50646003007</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>566</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>592</v>
+      </c>
+      <c r="C351" t="n">
+        <v>585</v>
+      </c>
+      <c r="D351" t="n">
+        <v>593</v>
+      </c>
+      <c r="E351" t="n">
+        <v>585</v>
+      </c>
+      <c r="F351" t="n">
+        <v>1332.77433595</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-85586.28079598007</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>566</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>592</v>
+      </c>
+      <c r="C352" t="n">
+        <v>592</v>
+      </c>
+      <c r="D352" t="n">
+        <v>592</v>
+      </c>
+      <c r="E352" t="n">
+        <v>592</v>
+      </c>
+      <c r="F352" t="n">
+        <v>2.4391</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-85583.84169598007</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>566</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>590</v>
+      </c>
+      <c r="C353" t="n">
+        <v>590</v>
+      </c>
+      <c r="D353" t="n">
+        <v>590</v>
+      </c>
+      <c r="E353" t="n">
+        <v>590</v>
+      </c>
+      <c r="F353" t="n">
+        <v>509.4101</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-86093.25179598006</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>566</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>590</v>
+      </c>
+      <c r="C354" t="n">
+        <v>591</v>
+      </c>
+      <c r="D354" t="n">
+        <v>591</v>
+      </c>
+      <c r="E354" t="n">
+        <v>590</v>
+      </c>
+      <c r="F354" t="n">
+        <v>1401.0061</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-84692.24569598006</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>566</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>591</v>
+      </c>
+      <c r="C355" t="n">
+        <v>600</v>
+      </c>
+      <c r="D355" t="n">
+        <v>600</v>
+      </c>
+      <c r="E355" t="n">
+        <v>591</v>
+      </c>
+      <c r="F355" t="n">
+        <v>5974.7261</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-78717.51959598006</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>566</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>600</v>
+      </c>
+      <c r="C356" t="n">
+        <v>606</v>
+      </c>
+      <c r="D356" t="n">
+        <v>607</v>
+      </c>
+      <c r="E356" t="n">
+        <v>599</v>
+      </c>
+      <c r="F356" t="n">
+        <v>5922.42765453</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-72795.09194145007</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>566</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>606</v>
+      </c>
+      <c r="C357" t="n">
+        <v>601</v>
+      </c>
+      <c r="D357" t="n">
+        <v>606</v>
+      </c>
+      <c r="E357" t="n">
+        <v>596</v>
+      </c>
+      <c r="F357" t="n">
+        <v>269.4818</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-73064.57374145006</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>566</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>601</v>
+      </c>
+      <c r="C358" t="n">
+        <v>601</v>
+      </c>
+      <c r="D358" t="n">
+        <v>604</v>
+      </c>
+      <c r="E358" t="n">
+        <v>601</v>
+      </c>
+      <c r="F358" t="n">
+        <v>1256.987</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-73064.57374145006</v>
+      </c>
+      <c r="H358" t="n">
+        <v>2</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>566</v>
+      </c>
+      <c r="K358" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L317" t="n">
-        <v>1.037553191489362</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>588</v>
-      </c>
-      <c r="C318" t="n">
-        <v>588</v>
-      </c>
-      <c r="D318" t="n">
-        <v>588</v>
-      </c>
-      <c r="E318" t="n">
-        <v>588</v>
-      </c>
-      <c r="F318" t="n">
-        <v>2755.22</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-81059.11837905008</v>
-      </c>
-      <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>585</v>
-      </c>
-      <c r="C319" t="n">
-        <v>585</v>
-      </c>
-      <c r="D319" t="n">
-        <v>586</v>
-      </c>
-      <c r="E319" t="n">
-        <v>585</v>
-      </c>
-      <c r="F319" t="n">
-        <v>1288.0517</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-82347.17007905008</v>
-      </c>
-      <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>588</v>
-      </c>
-      <c r="C320" t="n">
-        <v>588</v>
-      </c>
-      <c r="D320" t="n">
-        <v>588</v>
-      </c>
-      <c r="E320" t="n">
-        <v>588</v>
-      </c>
-      <c r="F320" t="n">
-        <v>963.6496</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-81383.52047905007</v>
-      </c>
-      <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>588</v>
-      </c>
-      <c r="C321" t="n">
-        <v>588</v>
-      </c>
-      <c r="D321" t="n">
-        <v>588</v>
-      </c>
-      <c r="E321" t="n">
-        <v>588</v>
-      </c>
-      <c r="F321" t="n">
-        <v>165.8163</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-81383.52047905007</v>
-      </c>
-      <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>588</v>
-      </c>
-      <c r="C322" t="n">
-        <v>588</v>
-      </c>
-      <c r="D322" t="n">
-        <v>588</v>
-      </c>
-      <c r="E322" t="n">
-        <v>588</v>
-      </c>
-      <c r="F322" t="n">
-        <v>17.0085</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-81383.52047905007</v>
-      </c>
-      <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>586</v>
-      </c>
-      <c r="C323" t="n">
-        <v>586</v>
-      </c>
-      <c r="D323" t="n">
-        <v>586</v>
-      </c>
-      <c r="E323" t="n">
-        <v>586</v>
-      </c>
-      <c r="F323" t="n">
-        <v>1515.1228</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-82898.64327905007</v>
-      </c>
-      <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>586</v>
-      </c>
-      <c r="C324" t="n">
-        <v>586</v>
-      </c>
-      <c r="D324" t="n">
-        <v>586</v>
-      </c>
-      <c r="E324" t="n">
-        <v>586</v>
-      </c>
-      <c r="F324" t="n">
-        <v>2245.906</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-82898.64327905007</v>
-      </c>
-      <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>586</v>
-      </c>
-      <c r="C325" t="n">
-        <v>586</v>
-      </c>
-      <c r="D325" t="n">
-        <v>586</v>
-      </c>
-      <c r="E325" t="n">
-        <v>586</v>
-      </c>
-      <c r="F325" t="n">
-        <v>580.3691</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-82898.64327905007</v>
-      </c>
-      <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>586</v>
-      </c>
-      <c r="C326" t="n">
-        <v>586</v>
-      </c>
-      <c r="D326" t="n">
-        <v>586</v>
-      </c>
-      <c r="E326" t="n">
-        <v>586</v>
-      </c>
-      <c r="F326" t="n">
-        <v>783.0759</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-82898.64327905007</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>586</v>
-      </c>
-      <c r="C327" t="n">
-        <v>586</v>
-      </c>
-      <c r="D327" t="n">
-        <v>586</v>
-      </c>
-      <c r="E327" t="n">
-        <v>586</v>
-      </c>
-      <c r="F327" t="n">
-        <v>48.2151</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-82898.64327905007</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>585</v>
-      </c>
-      <c r="C328" t="n">
-        <v>586</v>
-      </c>
-      <c r="D328" t="n">
-        <v>586</v>
-      </c>
-      <c r="E328" t="n">
-        <v>585</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1101.2116</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-82898.64327905007</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>585</v>
-      </c>
-      <c r="C329" t="n">
-        <v>585</v>
-      </c>
-      <c r="D329" t="n">
-        <v>585</v>
-      </c>
-      <c r="E329" t="n">
-        <v>585</v>
-      </c>
-      <c r="F329" t="n">
-        <v>887.8411</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-83786.48437905007</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>580</v>
-      </c>
-      <c r="C330" t="n">
-        <v>584</v>
-      </c>
-      <c r="D330" t="n">
-        <v>584</v>
-      </c>
-      <c r="E330" t="n">
-        <v>580</v>
-      </c>
-      <c r="F330" t="n">
-        <v>2131.5534</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-85918.03777905008</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>582</v>
-      </c>
-      <c r="C331" t="n">
-        <v>582</v>
-      </c>
-      <c r="D331" t="n">
-        <v>582</v>
-      </c>
-      <c r="E331" t="n">
-        <v>582</v>
-      </c>
-      <c r="F331" t="n">
-        <v>483.441</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-86401.47877905008</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>581</v>
-      </c>
-      <c r="C332" t="n">
-        <v>581</v>
-      </c>
-      <c r="D332" t="n">
-        <v>581</v>
-      </c>
-      <c r="E332" t="n">
-        <v>581</v>
-      </c>
-      <c r="F332" t="n">
-        <v>2460.0697</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-88861.54847905008</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>581</v>
-      </c>
-      <c r="C333" t="n">
-        <v>584</v>
-      </c>
-      <c r="D333" t="n">
-        <v>584</v>
-      </c>
-      <c r="E333" t="n">
-        <v>581</v>
-      </c>
-      <c r="F333" t="n">
-        <v>3498.7943</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-85362.75417905008</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>585</v>
-      </c>
-      <c r="C334" t="n">
-        <v>585</v>
-      </c>
-      <c r="D334" t="n">
-        <v>585</v>
-      </c>
-      <c r="E334" t="n">
-        <v>585</v>
-      </c>
-      <c r="F334" t="n">
-        <v>740</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-84622.75417905008</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>585</v>
-      </c>
-      <c r="C335" t="n">
-        <v>585</v>
-      </c>
-      <c r="D335" t="n">
-        <v>585</v>
-      </c>
-      <c r="E335" t="n">
-        <v>585</v>
-      </c>
-      <c r="F335" t="n">
-        <v>185</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-84622.75417905008</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>585</v>
-      </c>
-      <c r="C336" t="n">
-        <v>585</v>
-      </c>
-      <c r="D336" t="n">
-        <v>585</v>
-      </c>
-      <c r="E336" t="n">
-        <v>585</v>
-      </c>
-      <c r="F336" t="n">
-        <v>1438.66</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-84622.75417905008</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>586</v>
-      </c>
-      <c r="C337" t="n">
-        <v>586</v>
-      </c>
-      <c r="D337" t="n">
-        <v>586</v>
-      </c>
-      <c r="E337" t="n">
-        <v>586</v>
-      </c>
-      <c r="F337" t="n">
-        <v>879.9078</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-83742.84637905008</v>
-      </c>
-      <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>586</v>
-      </c>
-      <c r="C338" t="n">
-        <v>586</v>
-      </c>
-      <c r="D338" t="n">
-        <v>586</v>
-      </c>
-      <c r="E338" t="n">
-        <v>586</v>
-      </c>
-      <c r="F338" t="n">
-        <v>352.9163</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-83742.84637905008</v>
-      </c>
-      <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>586</v>
-      </c>
-      <c r="C339" t="n">
-        <v>586</v>
-      </c>
-      <c r="D339" t="n">
-        <v>586</v>
-      </c>
-      <c r="E339" t="n">
-        <v>586</v>
-      </c>
-      <c r="F339" t="n">
-        <v>135.8864</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-83742.84637905008</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>586</v>
-      </c>
-      <c r="C340" t="n">
-        <v>586</v>
-      </c>
-      <c r="D340" t="n">
-        <v>586</v>
-      </c>
-      <c r="E340" t="n">
-        <v>586</v>
-      </c>
-      <c r="F340" t="n">
-        <v>265.884</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-83742.84637905008</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>587</v>
-      </c>
-      <c r="C341" t="n">
-        <v>588</v>
-      </c>
-      <c r="D341" t="n">
-        <v>588</v>
-      </c>
-      <c r="E341" t="n">
-        <v>587</v>
-      </c>
-      <c r="F341" t="n">
-        <v>795.9106</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-82946.93577905008</v>
-      </c>
-      <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>589</v>
-      </c>
-      <c r="C342" t="n">
-        <v>589</v>
-      </c>
-      <c r="D342" t="n">
-        <v>589</v>
-      </c>
-      <c r="E342" t="n">
-        <v>589</v>
-      </c>
-      <c r="F342" t="n">
-        <v>485.36941902</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-82461.56636003008</v>
-      </c>
-      <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>590</v>
-      </c>
-      <c r="C343" t="n">
-        <v>591</v>
-      </c>
-      <c r="D343" t="n">
-        <v>591</v>
-      </c>
-      <c r="E343" t="n">
-        <v>590</v>
-      </c>
-      <c r="F343" t="n">
-        <v>906.05870659</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-81555.50765344007</v>
-      </c>
-      <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>591</v>
-      </c>
-      <c r="C344" t="n">
-        <v>590</v>
-      </c>
-      <c r="D344" t="n">
-        <v>591</v>
-      </c>
-      <c r="E344" t="n">
-        <v>590</v>
-      </c>
-      <c r="F344" t="n">
-        <v>317.1218</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-81872.62945344007</v>
-      </c>
-      <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>590</v>
-      </c>
-      <c r="C345" t="n">
-        <v>590</v>
-      </c>
-      <c r="D345" t="n">
-        <v>590</v>
-      </c>
-      <c r="E345" t="n">
-        <v>590</v>
-      </c>
-      <c r="F345" t="n">
-        <v>1109.1791</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-81872.62945344007</v>
-      </c>
-      <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>590</v>
-      </c>
-      <c r="C346" t="n">
-        <v>590</v>
-      </c>
-      <c r="D346" t="n">
-        <v>590</v>
-      </c>
-      <c r="E346" t="n">
-        <v>590</v>
-      </c>
-      <c r="F346" t="n">
-        <v>1474.0405</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-81872.62945344007</v>
-      </c>
-      <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>591</v>
-      </c>
-      <c r="C347" t="n">
-        <v>592</v>
-      </c>
-      <c r="D347" t="n">
-        <v>592</v>
-      </c>
-      <c r="E347" t="n">
-        <v>591</v>
-      </c>
-      <c r="F347" t="n">
-        <v>959.2936934099999</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-80913.33576003007</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>593</v>
-      </c>
-      <c r="C348" t="n">
-        <v>593</v>
-      </c>
-      <c r="D348" t="n">
-        <v>593</v>
-      </c>
-      <c r="E348" t="n">
-        <v>593</v>
-      </c>
-      <c r="F348" t="n">
-        <v>5</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-80908.33576003007</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>590</v>
-      </c>
-      <c r="C349" t="n">
-        <v>590</v>
-      </c>
-      <c r="D349" t="n">
-        <v>592</v>
-      </c>
-      <c r="E349" t="n">
-        <v>590</v>
-      </c>
-      <c r="F349" t="n">
-        <v>433.3209</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-81341.65666003007</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>591</v>
-      </c>
-      <c r="C350" t="n">
-        <v>589</v>
-      </c>
-      <c r="D350" t="n">
-        <v>592</v>
-      </c>
-      <c r="E350" t="n">
-        <v>589</v>
-      </c>
-      <c r="F350" t="n">
-        <v>2911.8498</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-84253.50646003007</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>592</v>
-      </c>
-      <c r="C351" t="n">
-        <v>585</v>
-      </c>
-      <c r="D351" t="n">
-        <v>593</v>
-      </c>
-      <c r="E351" t="n">
-        <v>585</v>
-      </c>
-      <c r="F351" t="n">
-        <v>1332.77433595</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-85586.28079598007</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>592</v>
-      </c>
-      <c r="C352" t="n">
-        <v>592</v>
-      </c>
-      <c r="D352" t="n">
-        <v>592</v>
-      </c>
-      <c r="E352" t="n">
-        <v>592</v>
-      </c>
-      <c r="F352" t="n">
-        <v>2.4391</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-85583.84169598007</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>590</v>
-      </c>
-      <c r="C353" t="n">
-        <v>590</v>
-      </c>
-      <c r="D353" t="n">
-        <v>590</v>
-      </c>
-      <c r="E353" t="n">
-        <v>590</v>
-      </c>
-      <c r="F353" t="n">
-        <v>509.4101</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-86093.25179598006</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>590</v>
-      </c>
-      <c r="C354" t="n">
-        <v>591</v>
-      </c>
-      <c r="D354" t="n">
-        <v>591</v>
-      </c>
-      <c r="E354" t="n">
-        <v>590</v>
-      </c>
-      <c r="F354" t="n">
-        <v>1401.0061</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-84692.24569598006</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>591</v>
-      </c>
-      <c r="C355" t="n">
-        <v>600</v>
-      </c>
-      <c r="D355" t="n">
-        <v>600</v>
-      </c>
-      <c r="E355" t="n">
-        <v>591</v>
-      </c>
-      <c r="F355" t="n">
-        <v>5974.7261</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-78717.51959598006</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>600</v>
-      </c>
-      <c r="C356" t="n">
-        <v>606</v>
-      </c>
-      <c r="D356" t="n">
-        <v>607</v>
-      </c>
-      <c r="E356" t="n">
-        <v>599</v>
-      </c>
-      <c r="F356" t="n">
-        <v>5922.42765453</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-72795.09194145007</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>606</v>
-      </c>
-      <c r="C357" t="n">
-        <v>601</v>
-      </c>
-      <c r="D357" t="n">
-        <v>606</v>
-      </c>
-      <c r="E357" t="n">
-        <v>596</v>
-      </c>
-      <c r="F357" t="n">
-        <v>269.4818</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-73064.57374145006</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>601</v>
-      </c>
-      <c r="C358" t="n">
-        <v>601</v>
-      </c>
-      <c r="D358" t="n">
-        <v>604</v>
-      </c>
-      <c r="E358" t="n">
-        <v>601</v>
-      </c>
-      <c r="F358" t="n">
-        <v>1256.987</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-73064.57374145006</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
+        <v>1.056837455830389</v>
+      </c>
+      <c r="M358" t="n">
+        <v>1.051693404634581</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -12935,7 +12849,7 @@
         <v>-55418.01094145006</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12968,7 +12882,7 @@
         <v>-59700.95924145007</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13001,7 +12915,7 @@
         <v>-65399.26094145006</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13034,7 +12948,7 @@
         <v>-64503.81484145006</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13067,7 +12981,7 @@
         <v>-64503.81484145006</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13100,7 +13014,7 @@
         <v>-61200.92704145006</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13133,7 +13047,7 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13166,7 +13080,7 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13199,7 +13113,7 @@
         <v>-64430.72084145006</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
